--- a/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC481FE9-2EE5-48A1-8E47-A41C5278975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFEC86-41AE-438D-98A8-6E80A9F3B0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="689">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2104,6 +2104,57 @@
   </si>
   <si>
     <t>Abstract?</t>
+  </si>
+  <si>
+    <t>SETU HR-XML StaffingOrder v1.4</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:hr-xml:2007:staffingorder:1.0</t>
+  </si>
+  <si>
+    <t>TICC-319</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::StaffingOrder##hr-xml@nl-1.4::2.5</t>
+  </si>
+  <si>
+    <t>SETU HR-XML StaffingOrder Status v1.4</t>
+  </si>
+  <si>
+    <t>SETU HR-XML HumanResource v1.4</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::HumanResource##hr-xml@nl-1.4::2.5</t>
+  </si>
+  <si>
+    <t>SETU HR-XML HumanResource Status v1.4</t>
+  </si>
+  <si>
+    <t>SETU HR-XML Assignment v1.4.1</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::Assignment##hr-xml@nl-1.4.1::2.5</t>
+  </si>
+  <si>
+    <t>SETU HR-XML Assignment Status v1.4</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:hr-xml:2007:humanresource:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:hr-xml:2007:assignment:1.0</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::StaffingOrder##hr-xml:status@nl-1.4::2.5</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::HumanResource##hr-xml:status@nl-1.4::2.5</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::Assignment##hr-xml:status@nl-1.4::2.5</t>
   </si>
 </sst>
 </file>
@@ -2763,11 +2814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11584,6 +11635,198 @@
         <v>532</v>
       </c>
     </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>676</v>
+      </c>
+      <c r="D254" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E254" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D255" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E255" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M255" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E256" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D257" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E257" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D258" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E258" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D259" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="E259" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M253" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B2E3F-E822-44F8-8807-0FE9B6022A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060A5E6-34A3-4F8C-8D93-D61304003C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="710">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2161,6 +2161,66 @@
     <t>TICC-215
 TICC-255
 TICC-342</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:digital::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:utskrift::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:flyttet::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:leveringskvittering::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:feil::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:aapningskvittering::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:mottakskvittering::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:varslingfeiletkvittering::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:digdir.no:2020:innbyggerpost:xsd::innbyggerpost##urn:fdc:digdir.no:2020:innbyggerpost:schema:returpostkvittering::1.0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_DIGITAL_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_UTSKRIFT_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_FLYTTET_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_LEVERINGSKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_FEILKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_AAPNINGSKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_MOTTAKSKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_VARSLINGFEILETKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>INNBYGGERPOST_DPI_RETURPOSTKVITTERING_1_0</t>
+  </si>
+  <si>
+    <t>TICC-331</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::fake</t>
   </si>
 </sst>
 </file>
@@ -2820,11 +2880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260:A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11833,6 +11893,294 @@
         <v>684</v>
       </c>
     </row>
+    <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D260" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E260" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D261" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E261" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D262" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E262" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="D263" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E263" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M263" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D264" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E264" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D265" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E265" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M265" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D266" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E266" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D267" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E267" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="I268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M253" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060A5E6-34A3-4F8C-8D93-D61304003C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFA8F1-15C7-44C8-8413-600810A97BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$M$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$M$268</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="711">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1544,9 +1544,6 @@
     <t>JP PINT invoice</t>
   </si>
   <si>
-    <t>TICC-222</t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:fdc:peppol:jp:billing:3.0::2.1</t>
   </si>
   <si>
@@ -1672,9 +1669,6 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>TICC-254</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:peppol:bis:selfbilling</t>
   </si>
   <si>
@@ -2221,6 +2215,18 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::fake</t>
+  </si>
+  <si>
+    <t>TICC-222
+TICC-343</t>
+  </si>
+  <si>
+    <t>TICC-254
+TICC-343</t>
+  </si>
+  <si>
+    <t>TICC-270
+TICC-343</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2350,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2466,6 +2472,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2883,8 +2892,8 @@
   <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260:A268"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2940,7 @@
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>449</v>
@@ -4270,11 +4279,11 @@
         <v>366</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I38" s="36" t="b">
         <v>0</v>
@@ -4310,11 +4319,11 @@
         <v>366</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I39" s="36" t="b">
         <v>0</v>
@@ -4350,11 +4359,11 @@
         <v>366</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I40" s="36" t="b">
         <v>0</v>
@@ -4390,11 +4399,11 @@
         <v>366</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I41" s="36" t="b">
         <v>0</v>
@@ -4430,11 +4439,11 @@
         <v>366</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I42" s="36" t="b">
         <v>0</v>
@@ -4470,11 +4479,11 @@
         <v>366</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I43" s="36" t="b">
         <v>0</v>
@@ -4507,7 +4516,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F44" s="17">
         <v>5</v>
@@ -4516,7 +4525,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I44" s="15" t="b">
         <v>0</v>
@@ -4547,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F45" s="17">
         <v>5</v>
@@ -4556,7 +4565,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I45" s="15" t="b">
         <v>0</v>
@@ -4587,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F46" s="17">
         <v>5</v>
@@ -4596,7 +4605,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I46" s="15" t="b">
         <v>0</v>
@@ -4865,7 +4874,7 @@
         <v>367</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I54" s="5" t="b">
         <v>0</v>
@@ -4881,7 +4890,7 @@
         <v>117</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5265,16 +5274,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G66" s="18">
         <v>45070</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I66" s="15" t="b">
         <v>0</v>
@@ -5305,16 +5314,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G67" s="18">
         <v>45070</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I67" s="15" t="b">
         <v>0</v>
@@ -5345,16 +5354,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G68" s="18">
         <v>45070</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I68" s="15" t="b">
         <v>0</v>
@@ -5622,16 +5631,16 @@
         <v>6</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G76" s="18">
         <v>45292</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I76" s="15" t="b">
         <v>0</v>
@@ -5662,16 +5671,16 @@
         <v>6</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G77" s="18">
         <v>45292</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I77" s="15" t="b">
         <v>0</v>
@@ -5702,7 +5711,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>206</v>
@@ -5711,7 +5720,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I78" s="15" t="b">
         <v>0</v>
@@ -5742,7 +5751,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>206</v>
@@ -5751,7 +5760,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I79" s="15" t="b">
         <v>0</v>
@@ -5782,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>206</v>
@@ -5791,7 +5800,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I80" s="15" t="b">
         <v>0</v>
@@ -5888,7 +5897,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>243</v>
@@ -5897,7 +5906,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I83" s="15" t="b">
         <v>0</v>
@@ -5961,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>206</v>
@@ -5970,7 +5979,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I85" s="15" t="b">
         <v>0</v>
@@ -6001,7 +6010,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>206</v>
@@ -6010,7 +6019,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I86" s="15" t="b">
         <v>0</v>
@@ -6041,7 +6050,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>206</v>
@@ -6050,7 +6059,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I87" s="15" t="b">
         <v>0</v>
@@ -6431,7 +6440,7 @@
         <v>206</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F98" s="21" t="s">
         <v>243</v>
@@ -6440,7 +6449,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I98" s="15" t="b">
         <v>0</v>
@@ -6603,16 +6612,16 @@
         <v>228</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G103" s="18">
         <v>45473</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I103" s="15" t="b">
         <v>0</v>
@@ -7493,7 +7502,7 @@
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>295</v>
@@ -7563,7 +7572,7 @@
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D132" s="28" t="s">
         <v>295</v>
@@ -8579,7 +8588,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>295</v>
@@ -8614,7 +8623,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>295</v>
@@ -8649,7 +8658,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>295</v>
@@ -8719,7 +8728,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>295</v>
@@ -8789,7 +8798,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>295</v>
@@ -8859,7 +8868,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>295</v>
@@ -8923,13 +8932,13 @@
     </row>
     <row r="173" spans="1:13" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D173" s="37" t="s">
         <v>295</v>
@@ -8938,11 +8947,11 @@
         <v>366</v>
       </c>
       <c r="F173" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G173" s="35"/>
       <c r="H173" s="36" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I173" s="36" t="b">
         <v>0</v>
@@ -8968,16 +8977,16 @@
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -9204,11 +9213,11 @@
         <v>366</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I181" s="36" t="b">
         <v>0</v>
@@ -9241,11 +9250,11 @@
         <v>366</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="36" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I182" s="36" t="b">
         <v>0</v>
@@ -9263,7 +9272,7 @@
     </row>
     <row r="183" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -9278,7 +9287,7 @@
         <v>367</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -9293,12 +9302,12 @@
         <v>450</v>
       </c>
       <c r="M183" s="43" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
@@ -9313,7 +9322,7 @@
         <v>367</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
@@ -9333,7 +9342,7 @@
     </row>
     <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -9348,7 +9357,7 @@
         <v>367</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
@@ -9430,7 +9439,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>490</v>
       </c>
@@ -9438,16 +9447,22 @@
         <v>56</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D188" s="27" t="s">
         <v>455</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="F188" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="G188" s="13">
+        <v>45565</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>491</v>
+        <v>708</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>0</v>
@@ -9468,22 +9483,22 @@
     </row>
     <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H189" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>0</v>
@@ -9498,27 +9513,27 @@
         <v>117</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>0</v>
@@ -9533,27 +9548,27 @@
         <v>117</v>
       </c>
       <c r="M190" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D191" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="D191" s="27" t="s">
-        <v>498</v>
-      </c>
       <c r="E191" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>0</v>
@@ -9568,27 +9583,27 @@
         <v>117</v>
       </c>
       <c r="M191" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D192" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="E192" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -9605,22 +9620,22 @@
     </row>
     <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D193" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="E193" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -9637,22 +9652,22 @@
     </row>
     <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D194" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="D194" s="28" t="s">
+      <c r="E194" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="E194" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -9669,22 +9684,22 @@
     </row>
     <row r="195" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H195" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="D195" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -9701,22 +9716,22 @@
     </row>
     <row r="196" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -9733,22 +9748,22 @@
     </row>
     <row r="197" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -9763,24 +9778,30 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>526</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="D198" s="27" t="s">
-        <v>529</v>
-      </c>
       <c r="E198" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="F198" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="G198" s="13">
+        <v>45565</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>530</v>
+        <v>709</v>
       </c>
       <c r="I198" s="5" t="b">
         <v>0</v>
@@ -9796,27 +9817,27 @@
         <v>117</v>
       </c>
       <c r="M198" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H199" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="D199" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="E199" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="I199" s="5" t="b">
         <v>0</v>
@@ -9832,27 +9853,27 @@
         <v>116</v>
       </c>
       <c r="M199" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>535</v>
-      </c>
       <c r="D200" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I200" s="5" t="b">
         <v>0</v>
@@ -9868,27 +9889,27 @@
         <v>116</v>
       </c>
       <c r="M200" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="D201" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I201" s="5" t="b">
         <v>0</v>
@@ -9904,27 +9925,27 @@
         <v>116</v>
       </c>
       <c r="M201" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="D202" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I202" s="5" t="b">
         <v>0</v>
@@ -9940,27 +9961,27 @@
         <v>116</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>544</v>
-      </c>
       <c r="D203" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>0</v>
@@ -9975,27 +9996,27 @@
         <v>116</v>
       </c>
       <c r="M203" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="D204" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>0</v>
@@ -10010,27 +10031,27 @@
         <v>116</v>
       </c>
       <c r="M204" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>549</v>
-      </c>
       <c r="D205" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E205" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>0</v>
@@ -10045,27 +10066,27 @@
         <v>116</v>
       </c>
       <c r="M205" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C206" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>550</v>
-      </c>
       <c r="D206" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E206" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>0</v>
@@ -10080,27 +10101,27 @@
         <v>116</v>
       </c>
       <c r="M206" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E207" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>0</v>
@@ -10115,27 +10136,27 @@
         <v>116</v>
       </c>
       <c r="M207" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>0</v>
@@ -10150,27 +10171,27 @@
         <v>116</v>
       </c>
       <c r="M208" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="D209" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E209" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>0</v>
@@ -10185,27 +10206,27 @@
         <v>116</v>
       </c>
       <c r="M209" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="D210" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E210" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>0</v>
@@ -10220,27 +10241,27 @@
         <v>116</v>
       </c>
       <c r="M210" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E211" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>0</v>
@@ -10255,27 +10276,27 @@
         <v>116</v>
       </c>
       <c r="M211" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="D212" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E212" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>0</v>
@@ -10290,27 +10311,27 @@
         <v>116</v>
       </c>
       <c r="M212" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="D213" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E213" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>0</v>
@@ -10325,27 +10346,27 @@
         <v>116</v>
       </c>
       <c r="M213" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D214" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E214" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>0</v>
@@ -10360,27 +10381,27 @@
         <v>450</v>
       </c>
       <c r="M214" s="42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E215" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>0</v>
@@ -10395,27 +10416,27 @@
         <v>450</v>
       </c>
       <c r="M215" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E216" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>0</v>
@@ -10430,27 +10451,27 @@
         <v>450</v>
       </c>
       <c r="M216" s="42" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D217" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E217" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
@@ -10465,27 +10486,27 @@
         <v>450</v>
       </c>
       <c r="M217" s="42" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E218" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -10500,27 +10521,27 @@
         <v>450</v>
       </c>
       <c r="M218" s="42" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E219" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -10535,59 +10556,59 @@
         <v>450</v>
       </c>
       <c r="M219" s="42" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D220" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="M220" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="D220" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E220" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H220" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M220" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D221" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E221" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H221" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D221" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E221" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H221" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -10599,27 +10620,27 @@
         <v>444</v>
       </c>
       <c r="M221" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D222" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E222" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I222" s="5" t="b">
         <v>0</v>
@@ -10631,27 +10652,27 @@
         <v>444</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E223" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -10666,27 +10687,27 @@
         <v>117</v>
       </c>
       <c r="M223" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B224" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D224" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E224" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H224" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E224" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -10701,27 +10722,33 @@
         <v>117</v>
       </c>
       <c r="M224" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D225" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="F225" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="G225" s="13">
+        <v>45565</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>614</v>
+        <v>710</v>
       </c>
       <c r="I225" s="5" t="b">
         <v>0</v>
@@ -10736,27 +10763,27 @@
         <v>117</v>
       </c>
       <c r="M225" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B226" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E226" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H226" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E226" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H226" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>0</v>
@@ -10771,27 +10798,27 @@
         <v>117</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>526</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="D227" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H227" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E227" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H227" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -10806,27 +10833,33 @@
         <v>117</v>
       </c>
       <c r="M227" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="F228" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="G228" s="13">
+        <v>45565</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>614</v>
+        <v>710</v>
       </c>
       <c r="I228" s="5" t="b">
         <v>0</v>
@@ -10841,27 +10874,27 @@
         <v>117</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B229" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H229" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D229" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E229" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -10876,27 +10909,27 @@
         <v>117</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E230" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I230" s="5" t="b">
         <v>0</v>
@@ -10911,27 +10944,27 @@
         <v>117</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E231" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I231" s="5" t="b">
         <v>0</v>
@@ -10946,27 +10979,27 @@
         <v>117</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E232" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I232" s="5" t="b">
         <v>0</v>
@@ -10981,27 +11014,27 @@
         <v>117</v>
       </c>
       <c r="M232" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="D233" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E233" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="I233" s="5" t="b">
         <v>0</v>
@@ -11016,27 +11049,27 @@
         <v>117</v>
       </c>
       <c r="M233" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E234" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -11051,27 +11084,27 @@
         <v>117</v>
       </c>
       <c r="M234" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E235" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -11086,27 +11119,27 @@
         <v>117</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E236" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -11121,27 +11154,27 @@
         <v>117</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="E237" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="D237" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="E237" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -11156,27 +11189,27 @@
         <v>117</v>
       </c>
       <c r="M237" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E238" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -11193,22 +11226,22 @@
     </row>
     <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E239" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -11225,22 +11258,22 @@
     </row>
     <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E240" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -11257,22 +11290,22 @@
     </row>
     <row r="241" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E241" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -11289,22 +11322,22 @@
     </row>
     <row r="242" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E242" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I242" s="5" t="b">
         <v>0</v>
@@ -11321,22 +11354,22 @@
     </row>
     <row r="243" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D243" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="E243" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H243" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D243" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="E243" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
@@ -11353,22 +11386,22 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E244" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>0</v>
@@ -11383,27 +11416,27 @@
         <v>117</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D245" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="E245" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H245" s="5" t="s">
         <v>648</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D245" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="E245" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>0</v>
@@ -11418,27 +11451,27 @@
         <v>117</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E246" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I246" s="5" t="b">
         <v>0</v>
@@ -11453,27 +11486,27 @@
         <v>117</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E247" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I247" s="5" t="b">
         <v>0</v>
@@ -11488,27 +11521,27 @@
         <v>117</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D248" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="E248" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H248" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="E248" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="I248" s="5" t="b">
         <v>0</v>
@@ -11523,27 +11556,27 @@
         <v>117</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E249" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I249" s="5" t="b">
         <v>0</v>
@@ -11558,27 +11591,27 @@
         <v>117</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E250" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I250" s="5" t="b">
         <v>0</v>
@@ -11593,27 +11626,27 @@
         <v>117</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E251" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I251" s="5" t="b">
         <v>0</v>
@@ -11628,27 +11661,27 @@
         <v>117</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E252" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I252" s="5" t="b">
         <v>0</v>
@@ -11663,27 +11696,27 @@
         <v>117</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C253" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D253" s="28" t="s">
+        <v>656</v>
+      </c>
+      <c r="E253" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H253" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="D253" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="E253" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>669</v>
       </c>
       <c r="I253" s="5" t="b">
         <v>0</v>
@@ -11698,60 +11731,60 @@
         <v>117</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>673</v>
+      </c>
+      <c r="D254" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E254" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="I254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="M254" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" t="s">
-        <v>675</v>
-      </c>
-      <c r="D254" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E254" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H254" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="I254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M254" s="5" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D255" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E255" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H255" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E255" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>674</v>
-      </c>
       <c r="I255" s="5" t="b">
         <v>0</v>
       </c>
@@ -11759,31 +11792,31 @@
         <v>0</v>
       </c>
       <c r="L255" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D256" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E256" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H256" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E256" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H256" s="5" t="s">
-        <v>674</v>
-      </c>
       <c r="I256" s="5" t="b">
         <v>0</v>
       </c>
@@ -11791,31 +11824,31 @@
         <v>0</v>
       </c>
       <c r="L256" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D257" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E257" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H257" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E257" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H257" s="5" t="s">
-        <v>674</v>
-      </c>
       <c r="I257" s="5" t="b">
         <v>0</v>
       </c>
@@ -11823,31 +11856,31 @@
         <v>0</v>
       </c>
       <c r="L257" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D258" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E258" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H258" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E258" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H258" s="5" t="s">
-        <v>674</v>
-      </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
       </c>
@@ -11855,62 +11888,62 @@
         <v>0</v>
       </c>
       <c r="L258" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D259" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E259" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="I259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="M259" s="5" t="s">
         <v>682</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="D259" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E259" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="I259" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M259" s="5" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E260" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
@@ -11919,30 +11952,30 @@
         <v>0</v>
       </c>
       <c r="L260" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E261" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -11951,30 +11984,30 @@
         <v>0</v>
       </c>
       <c r="L261" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E262" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -11983,30 +12016,30 @@
         <v>0</v>
       </c>
       <c r="L262" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E263" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -12015,30 +12048,30 @@
         <v>0</v>
       </c>
       <c r="L263" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E264" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -12047,30 +12080,30 @@
         <v>0</v>
       </c>
       <c r="L264" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E265" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -12079,30 +12112,30 @@
         <v>0</v>
       </c>
       <c r="L265" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E266" s="23" t="s">
         <v>367</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -12111,31 +12144,31 @@
         <v>0</v>
       </c>
       <c r="L266" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D267" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E267" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H267" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="D267" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E267" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H267" s="5" t="s">
-        <v>708</v>
-      </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
       </c>
@@ -12143,46 +12176,46 @@
         <v>0</v>
       </c>
       <c r="L267" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="I268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="M268" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="D268" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="H268" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="I268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M268" s="5" t="s">
-        <v>709</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M253" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M268" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFA8F1-15C7-44C8-8413-600810A97BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD44034-E97D-4206-B6D5-1A3CAEA4D1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="714">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2214,9 +2214,6 @@
     <t>TICC-331</t>
   </si>
   <si>
-    <t>cenbii-procid-ubl::fake</t>
-  </si>
-  <si>
     <t>TICC-222
 TICC-343</t>
   </si>
@@ -2227,6 +2224,20 @@
   <si>
     <t>TICC-270
 TICC-343</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:digital:ver1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:utskrift:ver1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:flyttet:ver1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:digital:ver1.0
+cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:utskrift:ver1.0
+cenbii-procid-ubl::urn:fdc:digdir.no:2020:profile:egovernment:innbyggerpost:flyttet:ver1.0</t>
   </si>
 </sst>
 </file>
@@ -2891,9 +2902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
   <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M269" sqref="M269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2921,7 @@
     <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="23"/>
     <col min="12" max="12" width="19.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="81.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="84.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
@@ -9462,7 +9473,7 @@
         <v>45565</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I188" s="5" t="b">
         <v>0</v>
@@ -9801,7 +9812,7 @@
         <v>45565</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I198" s="5" t="b">
         <v>0</v>
@@ -10748,7 +10759,7 @@
         <v>45565</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I225" s="5" t="b">
         <v>0</v>
@@ -10859,7 +10870,7 @@
         <v>45565</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I228" s="5" t="b">
         <v>0</v>
@@ -11955,7 +11966,7 @@
         <v>602</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -11987,7 +11998,7 @@
         <v>602</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12019,10 +12030,10 @@
         <v>602</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>700</v>
       </c>
@@ -12051,10 +12062,10 @@
         <v>602</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>701</v>
       </c>
@@ -12083,7 +12094,7 @@
         <v>602</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12115,7 +12126,7 @@
         <v>602</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12147,7 +12158,7 @@
         <v>602</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12179,7 +12190,7 @@
         <v>602</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -12211,7 +12222,7 @@
         <v>602</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
